--- a/src/Prototypes/hmi/AI/bio_master_D.xlsx
+++ b/src/Prototypes/hmi/AI/bio_master_D.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Q\Documents\uni\Echo\Project-Echo\src\Prototypes\hmi\AI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C36B04-66F5-45D2-A194-9A31BA817C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B10BEBF-3B9F-4FE8-9AD3-6B498A6129F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11280" yWindow="4130" windowWidth="24300" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4740" yWindow="4390" windowWidth="25520" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bio_master_D" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="390">
   <si>
     <t>Animal</t>
   </si>
@@ -111,9 +112,6 @@
     <t>Psaltoda plaga</t>
   </si>
   <si>
-    <t>PsephotellusÂ varius</t>
-  </si>
-  <si>
     <t>Psephotus haematonotus</t>
   </si>
   <si>
@@ -138,9 +136,6 @@
     <t>Pteropus scapulatus</t>
   </si>
   <si>
-    <t>PteropusÂ sp.</t>
-  </si>
-  <si>
     <t>Ptilinopus regina</t>
   </si>
   <si>
@@ -174,9 +169,6 @@
     <t>Pyrrholaemus sagittata</t>
   </si>
   <si>
-    <t>RadjahÂ radjah</t>
-  </si>
-  <si>
     <t>Ramsayornis fasciatus</t>
   </si>
   <si>
@@ -255,18 +247,9 @@
     <t>Tachybaptus novaehollandiae</t>
   </si>
   <si>
-    <t>TachybaptusÂ ruficollis</t>
-  </si>
-  <si>
     <t>Taeniopygia guttata</t>
   </si>
   <si>
-    <t>TerritornisÂ albilineata</t>
-  </si>
-  <si>
-    <t>TettigoniidaeÂ sp.</t>
-  </si>
-  <si>
     <t>Threskiornis moluccus</t>
   </si>
   <si>
@@ -318,9 +301,6 @@
     <t>Vanellus miles</t>
   </si>
   <si>
-    <t>VanellusÂ spinosus</t>
-  </si>
-  <si>
     <t>Vulpes vulpes</t>
   </si>
   <si>
@@ -333,9 +313,6 @@
     <t>Zanda funerea</t>
   </si>
   <si>
-    <t>ZandaÂ sp.</t>
-  </si>
-  <si>
     <t>Zoothera heinei</t>
   </si>
   <si>
@@ -351,12 +328,6 @@
     <t>Image Prompt</t>
   </si>
   <si>
-    <t>A photo realistic images of the animal, Phylidonyris pyrrhopterus in it's natural habitat</t>
-  </si>
-  <si>
-    <t>A photo realistic images of the animal, PhylidonyrisÂ nigra in it's natural habitat</t>
-  </si>
-  <si>
     <t>A photo realistic images of the animal, Pitta iris in it's natural habitat</t>
   </si>
   <si>
@@ -636,9 +607,6 @@
     <t>Please generate a short species bio with some interesting facts about  Phylidonyris pyrrhopterus</t>
   </si>
   <si>
-    <t>Please generate a short species bio with some interesting facts about  Phylidonyrisa nigra.</t>
-  </si>
-  <si>
     <t>Please generate a short species bio with some interesting facts about  Pitta iris.</t>
   </si>
   <si>
@@ -916,6 +884,333 @@
   </si>
   <si>
     <t>Phylidonyris niger</t>
+  </si>
+  <si>
+    <t>Please generate a short species bio with some interesting facts about  Phylidonyris niger.</t>
+  </si>
+  <si>
+    <t>A photo realistic images of the animal, Phylidonyris niger in it's natural habitat</t>
+  </si>
+  <si>
+    <t>A photo realistic images of Phylidonyris pyrrhopterus in it's natural habitat</t>
+  </si>
+  <si>
+    <t>Common Name</t>
+  </si>
+  <si>
+    <t>Crescent Honeyeater</t>
+  </si>
+  <si>
+    <t>White-cheeked honeyeater</t>
+  </si>
+  <si>
+    <t>Rainbow pitta</t>
+  </si>
+  <si>
+    <t>Noisy pitta</t>
+  </si>
+  <si>
+    <t>Pale-headed rosella</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Crimson Rosella</t>
+  </si>
+  <si>
+    <t>Ornate burrowing frog</t>
+  </si>
+  <si>
+    <t>Striped Honeyeater</t>
+  </si>
+  <si>
+    <t>Tawny Frogmouth</t>
+  </si>
+  <si>
+    <t>White-browed robin</t>
+  </si>
+  <si>
+    <t>White-browed babbler</t>
+  </si>
+  <si>
+    <t>Grey-crowned babbler</t>
+  </si>
+  <si>
+    <t>Little grassbird</t>
+  </si>
+  <si>
+    <t>Western swamphen</t>
+  </si>
+  <si>
+    <t>the redeye</t>
+  </si>
+  <si>
+    <t>silver knight</t>
+  </si>
+  <si>
+    <t>Psephotellus varius</t>
+  </si>
+  <si>
+    <t>Mulga Parrot</t>
+  </si>
+  <si>
+    <t>Red-Rumped Parrot</t>
+  </si>
+  <si>
+    <t>Ring-tail possum</t>
+  </si>
+  <si>
+    <t>Varied lorikeet</t>
+  </si>
+  <si>
+    <t>Chirruping wedgebill</t>
+  </si>
+  <si>
+    <t>Black-throated whipbird</t>
+  </si>
+  <si>
+    <t>Chiming wedgebill</t>
+  </si>
+  <si>
+    <t>Eastern whipbird</t>
+  </si>
+  <si>
+    <t>Little red flying fox</t>
+  </si>
+  <si>
+    <t>Pteropus sp.</t>
+  </si>
+  <si>
+    <t>Torresian flying-fox</t>
+  </si>
+  <si>
+    <t>Rose-crowned fruit dove</t>
+  </si>
+  <si>
+    <t>Satin bowebird</t>
+  </si>
+  <si>
+    <t>Yellow-tinted honeyeater</t>
+  </si>
+  <si>
+    <t>Fuscous honeyeater</t>
+  </si>
+  <si>
+    <t>Grey-headed honeyeater</t>
+  </si>
+  <si>
+    <t>White-plumed honeyeater</t>
+  </si>
+  <si>
+    <t>White-fronted honeyeater</t>
+  </si>
+  <si>
+    <t>Red-Capped Parrot</t>
+  </si>
+  <si>
+    <t>Pilotbird</t>
+  </si>
+  <si>
+    <t>Redthroat</t>
+  </si>
+  <si>
+    <t>speckled warbler </t>
+  </si>
+  <si>
+    <t>Radjah radjah</t>
+  </si>
+  <si>
+    <t>Radjah shelduck</t>
+  </si>
+  <si>
+    <t>Bar-breasted honeyeater</t>
+  </si>
+  <si>
+    <t>Brown rat</t>
+  </si>
+  <si>
+    <t>Cane toad</t>
+  </si>
+  <si>
+    <t>Grey fantail</t>
+  </si>
+  <si>
+    <t>Willie wagtail</t>
+  </si>
+  <si>
+    <t>Rufous fantail</t>
+  </si>
+  <si>
+    <t>Northern fantail</t>
+  </si>
+  <si>
+    <t>Channel-billed cuckoo</t>
+  </si>
+  <si>
+    <t>White-browed scrubwren</t>
+  </si>
+  <si>
+    <t>Large-billed scrubwren</t>
+  </si>
+  <si>
+    <t>Regent Bowerbird</t>
+  </si>
+  <si>
+    <t>Weebill</t>
+  </si>
+  <si>
+    <t>Australasian figbird</t>
+  </si>
+  <si>
+    <t>Spotted dove</t>
+  </si>
+  <si>
+    <t>Diamond Firetail</t>
+  </si>
+  <si>
+    <t>Rufous-crowned emu-wren</t>
+  </si>
+  <si>
+    <t>Double-barred finch</t>
+  </si>
+  <si>
+    <t>White-gaped honeyeater</t>
+  </si>
+  <si>
+    <t>Pied currawong</t>
+  </si>
+  <si>
+    <t>Grey currawong</t>
+  </si>
+  <si>
+    <t>Apostlebird</t>
+  </si>
+  <si>
+    <t>Black Honeyeater</t>
+  </si>
+  <si>
+    <t>Wild boar</t>
+  </si>
+  <si>
+    <t>Spectacled monarch</t>
+  </si>
+  <si>
+    <t>Brown quail</t>
+  </si>
+  <si>
+    <t>Australasian grebe</t>
+  </si>
+  <si>
+    <t>Tachybaptus ruficollis</t>
+  </si>
+  <si>
+    <t>Little grebe</t>
+  </si>
+  <si>
+    <t>Zebra Finch</t>
+  </si>
+  <si>
+    <t>Territornis albilineata</t>
+  </si>
+  <si>
+    <t>white-lined honeyeater</t>
+  </si>
+  <si>
+    <t>Tettigoniidae sp.</t>
+  </si>
+  <si>
+    <t>Bush cricket</t>
+  </si>
+  <si>
+    <t>White Ibis</t>
+  </si>
+  <si>
+    <t>Forest kingfisher</t>
+  </si>
+  <si>
+    <t>Red-backed kingfisher</t>
+  </si>
+  <si>
+    <t>Sacred kingfisher</t>
+  </si>
+  <si>
+    <t>Pale-yellow robin</t>
+  </si>
+  <si>
+    <t>Scaly-breasted lorikeet</t>
+  </si>
+  <si>
+    <t>Coconut lorikeet</t>
+  </si>
+  <si>
+    <t>Common brushtail possum</t>
+  </si>
+  <si>
+    <t>Common blackbird</t>
+  </si>
+  <si>
+    <t>Painted buttonquail</t>
+  </si>
+  <si>
+    <t>Eastern barn owl</t>
+  </si>
+  <si>
+    <t>Montane toadlet</t>
+  </si>
+  <si>
+    <t>Smooth toadlet</t>
+  </si>
+  <si>
+    <t>Stonemason toadlet</t>
+  </si>
+  <si>
+    <t>Littlejohn's toadlet</t>
+  </si>
+  <si>
+    <t>Mimicking gungan</t>
+  </si>
+  <si>
+    <t>Masked lapwing</t>
+  </si>
+  <si>
+    <t>Vanellus spinosus</t>
+  </si>
+  <si>
+    <t>Spur-winged lapwing</t>
+  </si>
+  <si>
+    <t>Red fox</t>
+  </si>
+  <si>
+    <t>Swamp wallaby</t>
+  </si>
+  <si>
+    <t>Tropical ambertail</t>
+  </si>
+  <si>
+    <t>Yellow-tailed black cockatoo</t>
+  </si>
+  <si>
+    <t>Zanda sp.</t>
+  </si>
+  <si>
+    <t>Sulphur crested cockatoo</t>
+  </si>
+  <si>
+    <t>Russet-tailed thrush</t>
+  </si>
+  <si>
+    <t>Bassian thrush</t>
+  </si>
+  <si>
+    <t>Silvereye</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>JSON</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1526,6 +1821,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1571,7 +1892,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1623,6 +1944,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1681,6 +2010,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1980,1856 +2313,2980 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N95"/>
+  <dimension ref="A1:P95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="18" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" style="21" customWidth="1"/>
-    <col min="9" max="9" width="27.6328125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="15.453125" customWidth="1"/>
-    <col min="11" max="11" width="30.90625" customWidth="1"/>
-    <col min="12" max="12" width="27.6328125" customWidth="1"/>
-    <col min="13" max="13" width="23.90625" customWidth="1"/>
-    <col min="14" max="14" width="144.7265625" customWidth="1"/>
-    <col min="15" max="15" width="60.90625" customWidth="1"/>
+    <col min="2" max="2" width="24" style="24" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7265625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10.81640625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" style="21" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="26" customWidth="1"/>
+    <col min="11" max="11" width="27.6328125" style="22" customWidth="1"/>
+    <col min="12" max="12" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="30.90625" customWidth="1"/>
+    <col min="14" max="14" width="27.6328125" customWidth="1"/>
+    <col min="15" max="15" width="23.90625" customWidth="1"/>
+    <col min="16" max="16" width="144.7265625" customWidth="1"/>
+    <col min="17" max="17" width="60.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="47" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="25" t="s">
+        <v>389</v>
+      </c>
+      <c r="K1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="8" t="e">
+      <c r="B2" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A2,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N2" t="e">
+      <c r="P2" t="e">
         <f>_xlfn.CONCAT(#REF!,A2,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" s="8" t="e">
+        <v>280</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A3,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N3" t="e">
+      <c r="P3" t="e">
         <f>_xlfn.CONCAT(#REF!,A3,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="8" t="e">
+      <c r="B4" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A4,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N4" t="e">
+      <c r="P4" t="e">
         <f>_xlfn.CONCAT(#REF!,A4,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="K5" s="8" t="e">
+      <c r="B5" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A5,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N5" t="e">
+      <c r="P5" t="e">
         <f>_xlfn.CONCAT(#REF!,A5,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K6" s="8" t="e">
+      <c r="B6" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A6,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N6" t="e">
+      <c r="P6" t="e">
         <f>_xlfn.CONCAT(#REF!,A6,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="8" t="e">
+      <c r="B7" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A7,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N7" t="e">
+      <c r="P7" t="e">
         <f>_xlfn.CONCAT(#REF!,A7,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K8" s="8" t="e">
+      <c r="B8" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A8,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N8" t="e">
+      <c r="P8" t="e">
         <f>_xlfn.CONCAT(#REF!,A8,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="8" t="e">
+      <c r="B9" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A9,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N9" t="e">
+      <c r="P9" t="e">
         <f>_xlfn.CONCAT(#REF!,A9,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="8" t="e">
+      <c r="B10" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A10,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N10" t="e">
+      <c r="P10" t="e">
         <f>_xlfn.CONCAT(#REF!,A10,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="8" t="e">
+      <c r="B11" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A11,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N11" t="e">
+      <c r="P11" t="e">
         <f>_xlfn.CONCAT(#REF!,A11,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K12" s="8" t="e">
+      <c r="B12" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A12,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N12" t="e">
+      <c r="P12" t="e">
         <f>_xlfn.CONCAT(#REF!,A12,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K13" s="8" t="e">
+      <c r="B13" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A13,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N13" t="e">
+      <c r="P13" t="e">
         <f>_xlfn.CONCAT(#REF!,A13,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K14" s="8" t="e">
+      <c r="B14" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A14,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N14" t="e">
+      <c r="P14" t="e">
         <f>_xlfn.CONCAT(#REF!,A14,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="K15" s="8" t="e">
+      <c r="B15" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A15,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N15" t="e">
+      <c r="P15" t="e">
         <f>_xlfn.CONCAT(#REF!,A15,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16" s="8" t="e">
+      <c r="B16" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A16,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N16" t="e">
+      <c r="P16" t="e">
         <f>_xlfn.CONCAT(#REF!,A16,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A17,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P17" t="e">
+        <f>_xlfn.CONCAT(#REF!,A17,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A18,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P18" t="e">
+        <f>_xlfn.CONCAT(#REF!,A18,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A19,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P19" t="e">
+        <f>_xlfn.CONCAT(#REF!,A19,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A20,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P20" t="e">
+        <f>_xlfn.CONCAT(#REF!,A20,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A21,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P21" t="e">
+        <f>_xlfn.CONCAT(#REF!,A21,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J22" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A22,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P22" t="e">
+        <f>_xlfn.CONCAT(#REF!,A22,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A23,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P23" t="e">
+        <f>_xlfn.CONCAT(#REF!,A23,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A24,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P24" t="e">
+        <f>_xlfn.CONCAT(#REF!,A24,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A25,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P25" t="e">
+        <f>_xlfn.CONCAT(#REF!,A25,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A26,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P26" t="e">
+        <f>_xlfn.CONCAT(#REF!,A26,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A27,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P27" t="e">
+        <f>_xlfn.CONCAT(#REF!,A27,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A17,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N17" t="e">
-        <f>_xlfn.CONCAT(#REF!,A17,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="D28" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A28,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P28" t="e">
+        <f>_xlfn.CONCAT(#REF!,A28,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="K18" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A18,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N18" t="e">
-        <f>_xlfn.CONCAT(#REF!,A18,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="D29" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A29,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P29" t="e">
+        <f>_xlfn.CONCAT(#REF!,A29,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K19" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A19,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N19" t="e">
-        <f>_xlfn.CONCAT(#REF!,A19,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="D30" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A30,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P30" t="e">
+        <f>_xlfn.CONCAT(#REF!,A30,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A20,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N20" t="e">
-        <f>_xlfn.CONCAT(#REF!,A20,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="D31" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A31,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P31" t="e">
+        <f>_xlfn.CONCAT(#REF!,A31,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A21,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N21" t="e">
-        <f>_xlfn.CONCAT(#REF!,A21,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="9" t="s">
+      <c r="D32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M32" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A32,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P32" t="e">
+        <f>_xlfn.CONCAT(#REF!,A32,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A22,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N22" t="e">
-        <f>_xlfn.CONCAT(#REF!,A22,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="9" t="s">
+      <c r="D33" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M33" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A33,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P33" t="e">
+        <f>_xlfn.CONCAT(#REF!,A33,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A23,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N23" t="e">
-        <f>_xlfn.CONCAT(#REF!,A23,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="9" t="s">
+      <c r="D34" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M34" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A34,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P34" t="e">
+        <f>_xlfn.CONCAT(#REF!,A34,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A24,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N24" t="e">
-        <f>_xlfn.CONCAT(#REF!,A24,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="9" t="s">
+      <c r="D35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M35" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A35,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P35" t="e">
+        <f>_xlfn.CONCAT(#REF!,A35,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="K25" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A25,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N25" t="e">
-        <f>_xlfn.CONCAT(#REF!,A25,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="9" t="s">
+      <c r="D36" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M36" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A36,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P36" t="e">
+        <f>_xlfn.CONCAT(#REF!,A36,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="K26" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A26,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N26" t="e">
-        <f>_xlfn.CONCAT(#REF!,A26,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="9" t="s">
+      <c r="D37" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A37,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P37" t="e">
+        <f>_xlfn.CONCAT(#REF!,A37,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="K27" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A27,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N27" t="e">
-        <f>_xlfn.CONCAT(#REF!,A27,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="9" t="s">
+      <c r="D38" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A38,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P38" t="e">
+        <f>_xlfn.CONCAT(#REF!,A38,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K28" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A28,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N28" t="e">
-        <f>_xlfn.CONCAT(#REF!,A28,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="9" t="s">
+      <c r="D39" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M39" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A39,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P39" t="e">
+        <f>_xlfn.CONCAT(#REF!,A39,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="K29" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A29,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N29" t="e">
-        <f>_xlfn.CONCAT(#REF!,A29,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="9" t="s">
+      <c r="D40" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M40" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A40,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P40" t="e">
+        <f>_xlfn.CONCAT(#REF!,A40,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A30,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N30" t="e">
-        <f>_xlfn.CONCAT(#REF!,A30,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="9" t="s">
+      <c r="D41" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M41" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A41,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P41" t="e">
+        <f>_xlfn.CONCAT(#REF!,A41,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="K31" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A31,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N31" t="e">
-        <f>_xlfn.CONCAT(#REF!,A31,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="9" t="s">
+      <c r="D42" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J42" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M42" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A42,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P42" t="e">
+        <f>_xlfn.CONCAT(#REF!,A42,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="K32" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A32,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N32" t="e">
-        <f>_xlfn.CONCAT(#REF!,A32,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="9" t="s">
+      <c r="D43" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M43" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A43,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P43" t="e">
+        <f>_xlfn.CONCAT(#REF!,A43,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K33" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A33,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N33" t="e">
-        <f>_xlfn.CONCAT(#REF!,A33,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="9" t="s">
+      <c r="D44" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M44" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A44,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P44" t="e">
+        <f>_xlfn.CONCAT(#REF!,A44,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="K34" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A34,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N34" t="e">
-        <f>_xlfn.CONCAT(#REF!,A34,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="9" t="s">
+      <c r="D45" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M45" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A45,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P45" t="e">
+        <f>_xlfn.CONCAT(#REF!,A45,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C46" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="K35" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A35,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N35" t="e">
-        <f>_xlfn.CONCAT(#REF!,A35,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="9" t="s">
+      <c r="D46" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M46" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A46,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P46" t="e">
+        <f>_xlfn.CONCAT(#REF!,A46,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K36" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A36,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N36" t="e">
-        <f>_xlfn.CONCAT(#REF!,A36,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="9" t="s">
+      <c r="D47" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M47" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A47,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P47" t="e">
+        <f>_xlfn.CONCAT(#REF!,A47,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="C48" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="K37" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A37,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N37" t="e">
-        <f>_xlfn.CONCAT(#REF!,A37,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="9" t="s">
+      <c r="D48" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M48" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A48,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P48" t="e">
+        <f>_xlfn.CONCAT(#REF!,A48,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="C49" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="K38" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A38,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N38" t="e">
-        <f>_xlfn.CONCAT(#REF!,A38,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="9" t="s">
+      <c r="D49" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M49" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A49,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P49" t="e">
+        <f>_xlfn.CONCAT(#REF!,A49,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K39" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A39,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N39" t="e">
-        <f>_xlfn.CONCAT(#REF!,A39,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="9" t="s">
+      <c r="D50" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M50" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A50,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P50" t="e">
+        <f>_xlfn.CONCAT(#REF!,A50,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="C51" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K40" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A40,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N40" t="e">
-        <f>_xlfn.CONCAT(#REF!,A40,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="D51" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M51" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A51,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P51" t="e">
+        <f>_xlfn.CONCAT(#REF!,A51,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K41" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A41,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N41" t="e">
-        <f>_xlfn.CONCAT(#REF!,A41,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="9" t="s">
+      <c r="D52" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M52" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A52,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P52" t="e">
+        <f>_xlfn.CONCAT(#REF!,A52,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="C53" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K42" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A42,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N42" t="e">
-        <f>_xlfn.CONCAT(#REF!,A42,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="9" t="s">
+      <c r="D53" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M53" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A53,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P53" t="e">
+        <f>_xlfn.CONCAT(#REF!,A53,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="C54" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="K43" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A43,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N43" t="e">
-        <f>_xlfn.CONCAT(#REF!,A43,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="9" t="s">
+      <c r="D54" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J54" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M54" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A54,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P54" t="e">
+        <f>_xlfn.CONCAT(#REF!,A54,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="C55" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="K44" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A44,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N44" t="e">
-        <f>_xlfn.CONCAT(#REF!,A44,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="9" t="s">
+      <c r="D55" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J55" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M55" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A55,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P55" t="e">
+        <f>_xlfn.CONCAT(#REF!,A55,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="C56" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K45" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A45,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N45" t="e">
-        <f>_xlfn.CONCAT(#REF!,A45,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="9" t="s">
+      <c r="D56" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J56" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A56,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P56" t="e">
+        <f>_xlfn.CONCAT(#REF!,A56,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="C57" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="K46" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A46,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N46" t="e">
-        <f>_xlfn.CONCAT(#REF!,A46,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="9" t="s">
+      <c r="D57" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J57" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M57" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A57,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P57" t="e">
+        <f>_xlfn.CONCAT(#REF!,A57,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C47" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="K47" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A47,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N47" t="e">
-        <f>_xlfn.CONCAT(#REF!,A47,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="9" t="s">
+      <c r="D58" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M58" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A58,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P58" t="e">
+        <f>_xlfn.CONCAT(#REF!,A58,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="C59" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K48" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A48,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N48" t="e">
-        <f>_xlfn.CONCAT(#REF!,A48,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="9" t="s">
+      <c r="D59" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M59" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A59,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P59" t="e">
+        <f>_xlfn.CONCAT(#REF!,A59,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="C60" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="K49" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A49,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N49" t="e">
-        <f>_xlfn.CONCAT(#REF!,A49,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="9" t="s">
+      <c r="D60" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M60" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A60,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P60" t="e">
+        <f>_xlfn.CONCAT(#REF!,A60,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="K50" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A50,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N50" t="e">
-        <f>_xlfn.CONCAT(#REF!,A50,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="9" t="s">
+      <c r="D61" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J61" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M61" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A61,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P61" t="e">
+        <f>_xlfn.CONCAT(#REF!,A61,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C62" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K51" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A51,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N51" t="e">
-        <f>_xlfn.CONCAT(#REF!,A51,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="9" t="s">
+      <c r="D62" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M62" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A62,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P62" t="e">
+        <f>_xlfn.CONCAT(#REF!,A62,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="K52" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A52,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N52" t="e">
-        <f>_xlfn.CONCAT(#REF!,A52,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="9" t="s">
+      <c r="D63" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J63" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M63" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A63,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P63" t="e">
+        <f>_xlfn.CONCAT(#REF!,A63,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C53" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="K53" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A53,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N53" t="e">
-        <f>_xlfn.CONCAT(#REF!,A53,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="9" t="s">
+      <c r="D64" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M64" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A64,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P64" t="e">
+        <f>_xlfn.CONCAT(#REF!,A64,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C65" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C54" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="K54" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A54,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N54" t="e">
-        <f>_xlfn.CONCAT(#REF!,A54,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55" s="9" t="s">
+      <c r="D65" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M65" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A65,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P65" t="e">
+        <f>_xlfn.CONCAT(#REF!,A65,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="C66" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="K55" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A55,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N55" t="e">
-        <f>_xlfn.CONCAT(#REF!,A55,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="9" t="s">
+      <c r="D66" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J66" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M66" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A66,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P66" t="e">
+        <f>_xlfn.CONCAT(#REF!,A66,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="C67" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="K56" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A56,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N56" t="e">
-        <f>_xlfn.CONCAT(#REF!,A56,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57" s="9" t="s">
+      <c r="D67" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M67" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A67,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P67" t="e">
+        <f>_xlfn.CONCAT(#REF!,A67,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="C68" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="K57" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A57,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N57" t="e">
-        <f>_xlfn.CONCAT(#REF!,A57,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="9" t="s">
+      <c r="D68" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J68" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M68" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A68,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P68" t="e">
+        <f>_xlfn.CONCAT(#REF!,A68,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="C69" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C58" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K58" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A58,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N58" t="e">
-        <f>_xlfn.CONCAT(#REF!,A58,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="9" t="s">
+      <c r="D69" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J69" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M69" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A69,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P69" t="e">
+        <f>_xlfn.CONCAT(#REF!,A69,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="C70" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="K59" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A59,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N59" t="e">
-        <f>_xlfn.CONCAT(#REF!,A59,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="9" t="s">
+      <c r="D70" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J70" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M70" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A70,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P70" t="e">
+        <f>_xlfn.CONCAT(#REF!,A70,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="C71" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="K60" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A60,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N60" t="e">
-        <f>_xlfn.CONCAT(#REF!,A60,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="9" t="s">
+      <c r="D71" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M71" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A71,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P71" t="e">
+        <f>_xlfn.CONCAT(#REF!,A71,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="K61" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A61,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N61" t="e">
-        <f>_xlfn.CONCAT(#REF!,A61,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="9" t="s">
+      <c r="D72" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J72" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M72" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A72,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P72" t="e">
+        <f>_xlfn.CONCAT(#REF!,A72,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C62" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="K62" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A62,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N62" t="e">
-        <f>_xlfn.CONCAT(#REF!,A62,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="D73" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J73" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M73" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A73,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P73" t="e">
+        <f>_xlfn.CONCAT(#REF!,A73,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="C74" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C63" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="K63" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A63,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N63" t="e">
-        <f>_xlfn.CONCAT(#REF!,A63,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="9" t="s">
+      <c r="D74" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M74" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A74,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P74" t="e">
+        <f>_xlfn.CONCAT(#REF!,A74,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C64" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="K64" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A64,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N64" t="e">
-        <f>_xlfn.CONCAT(#REF!,A64,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="D75" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J75" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M75" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A75,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P75" t="e">
+        <f>_xlfn.CONCAT(#REF!,A75,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="C76" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C65" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="K65" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A65,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N65" t="e">
-        <f>_xlfn.CONCAT(#REF!,A65,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="9" t="s">
+      <c r="D76" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J76" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M76" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A76,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P76" t="e">
+        <f>_xlfn.CONCAT(#REF!,A76,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C66" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="K66" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A66,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N66" t="e">
-        <f>_xlfn.CONCAT(#REF!,A66,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="9" t="s">
+      <c r="D77" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M77" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A77,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P77" t="e">
+        <f>_xlfn.CONCAT(#REF!,A77,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C67" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="K67" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A67,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N67" t="e">
-        <f>_xlfn.CONCAT(#REF!,A67,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" s="9" t="s">
+      <c r="D78" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M78" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A78,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P78" t="e">
+        <f>_xlfn.CONCAT(#REF!,A78,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="C79" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C68" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="K68" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A68,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N68" t="e">
-        <f>_xlfn.CONCAT(#REF!,A68,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" s="9" t="s">
+      <c r="D79" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M79" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A79,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P79" t="e">
+        <f>_xlfn.CONCAT(#REF!,A79,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="C80" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C69" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="K69" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A69,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N69" t="e">
-        <f>_xlfn.CONCAT(#REF!,A69,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="9" t="s">
+      <c r="D80" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M80" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A80,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P80" t="e">
+        <f>_xlfn.CONCAT(#REF!,A80,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="C81" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C70" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="K70" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A70,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N70" t="e">
-        <f>_xlfn.CONCAT(#REF!,A70,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="9" t="s">
+      <c r="D81" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J81" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M81" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A81,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P81" t="e">
+        <f>_xlfn.CONCAT(#REF!,A81,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="C82" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C71" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="K71" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A71,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N71" t="e">
-        <f>_xlfn.CONCAT(#REF!,A71,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="9" t="s">
+      <c r="D82" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J82" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M82" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A82,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P82" t="e">
+        <f>_xlfn.CONCAT(#REF!,A82,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C72" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="K72" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A72,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N72" t="e">
-        <f>_xlfn.CONCAT(#REF!,A72,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="9" t="s">
+      <c r="D83" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J83" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M83" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A83,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P83" t="e">
+        <f>_xlfn.CONCAT(#REF!,A83,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="C84" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="K73" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A73,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N73" t="e">
-        <f>_xlfn.CONCAT(#REF!,A73,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="9" t="s">
+      <c r="D84" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J84" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M84" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A84,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P84" t="e">
+        <f>_xlfn.CONCAT(#REF!,A84,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C74" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="K74" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A74,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N74" t="e">
-        <f>_xlfn.CONCAT(#REF!,A74,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="9" t="s">
+      <c r="D85" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J85" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M85" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A85,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P85" t="e">
+        <f>_xlfn.CONCAT(#REF!,A85,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="C86" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C75" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K75" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A75,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N75" t="e">
-        <f>_xlfn.CONCAT(#REF!,A75,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="9" t="s">
+      <c r="D86" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J86" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M86" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A86,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P86" t="e">
+        <f>_xlfn.CONCAT(#REF!,A86,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="K76" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A76,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N76" t="e">
-        <f>_xlfn.CONCAT(#REF!,A76,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="9" t="s">
+      <c r="D87" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J87" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M87" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A87,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P87" t="e">
+        <f>_xlfn.CONCAT(#REF!,A87,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="C88" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="K77" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A77,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N77" t="e">
-        <f>_xlfn.CONCAT(#REF!,A77,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="9" t="s">
+      <c r="D88" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J88" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M88" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A88,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P88" t="e">
+        <f>_xlfn.CONCAT(#REF!,A88,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="C89" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="K78" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A78,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N78" t="e">
-        <f>_xlfn.CONCAT(#REF!,A78,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="9" t="s">
+      <c r="D89" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J89" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M89" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A89,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P89" t="e">
+        <f>_xlfn.CONCAT(#REF!,A89,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="C90" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="K79" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A79,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N79" t="e">
-        <f>_xlfn.CONCAT(#REF!,A79,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="9" t="s">
+      <c r="D90" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J90" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M90" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A90,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P90" t="e">
+        <f>_xlfn.CONCAT(#REF!,A90,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>382</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C80" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="K80" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A80,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N80" t="e">
-        <f>_xlfn.CONCAT(#REF!,A80,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="9" t="s">
+      <c r="D91" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J91" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M91" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A91,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P91" t="e">
+        <f>_xlfn.CONCAT(#REF!,A91,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="K81" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A81,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N81" t="e">
-        <f>_xlfn.CONCAT(#REF!,A81,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="9" t="s">
+      <c r="D92" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M92" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A92,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P92" t="e">
+        <f>_xlfn.CONCAT(#REF!,A92,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>385</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="K82" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A82,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N82" t="e">
-        <f>_xlfn.CONCAT(#REF!,A82,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="9" t="s">
+      <c r="D93" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E93" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J93" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M93" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A93,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P93" t="e">
+        <f>_xlfn.CONCAT(#REF!,A93,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C83" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="K83" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A83,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N83" t="e">
-        <f>_xlfn.CONCAT(#REF!,A83,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="9" t="s">
+      <c r="D94" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="J94" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M94" s="8" t="e">
+        <f>_xlfn.CONCAT(#REF!,A94,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P94" t="e">
+        <f>_xlfn.CONCAT(#REF!,A94,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="C95" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K84" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A84,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N84" t="e">
-        <f>_xlfn.CONCAT(#REF!,A84,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C85" s="10" t="s">
+      <c r="D95" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="K85" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A85,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N85" t="e">
-        <f>_xlfn.CONCAT(#REF!,A85,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="K86" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A86,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N86" t="e">
-        <f>_xlfn.CONCAT(#REF!,A86,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="K87" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A87,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N87" t="e">
-        <f>_xlfn.CONCAT(#REF!,A87,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K88" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A88,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N88" t="e">
-        <f>_xlfn.CONCAT(#REF!,A88,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K89" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A89,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N89" t="e">
-        <f>_xlfn.CONCAT(#REF!,A89,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="K90" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A90,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N90" t="e">
-        <f>_xlfn.CONCAT(#REF!,A90,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="K91" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A91,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N91" t="e">
-        <f>_xlfn.CONCAT(#REF!,A91,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="C92" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="K92" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A92,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N92" t="e">
-        <f>_xlfn.CONCAT(#REF!,A92,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="K93" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A93,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N93" t="e">
-        <f>_xlfn.CONCAT(#REF!,A93,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="K94" s="8" t="e">
-        <f>_xlfn.CONCAT(#REF!,A94,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N94" t="e">
-        <f>_xlfn.CONCAT(#REF!,A94,#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="K95" s="8" t="e">
+      <c r="E95" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J95" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M95" s="8" t="e">
         <f>_xlfn.CONCAT(#REF!,A95,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="N95" t="e">
+      <c r="P95" t="e">
         <f>_xlfn.CONCAT(#REF!,A95,#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -3838,4 +5295,307 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FEBDB69-181F-4686-AD8B-286C5DBEE4ED}">
+  <dimension ref="E2:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <f>POWER(36,1)</f>
+        <v>36</v>
+      </c>
+      <c r="F2">
+        <f>POWER(36,2)</f>
+        <v>1296</v>
+      </c>
+      <c r="G2">
+        <f>POWER(36,3)</f>
+        <v>46656</v>
+      </c>
+      <c r="H2">
+        <f>SUM(E2:G2)</f>
+        <v>47988</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000B6819DFD5FA454798681CCF9B7BA5BF" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8c0cca1c4438899355bf4f1dbf0ab37d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5c48cf74-faa4-45ce-8724-b4a2e6319650" xmlns:ns4="0834320c-9e23-4bae-85ff-8c05626a643e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="da21384fe192b4af237fb4f42bf3e240" ns3:_="" ns4:_="">
+    <xsd:import namespace="5c48cf74-faa4-45ce-8724-b4a2e6319650"/>
+    <xsd:import namespace="0834320c-9e23-4bae-85ff-8c05626a643e"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5c48cf74-faa4-45ce-8724-b4a2e6319650" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="10" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="0834320c-9e23-4bae-85ff-8c05626a643e" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="12" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6487364-62EF-4078-BD3D-F14F12F142A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5c48cf74-faa4-45ce-8724-b4a2e6319650"/>
+    <ds:schemaRef ds:uri="0834320c-9e23-4bae-85ff-8c05626a643e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28B672DD-6814-48AD-A339-1B914A68BDFD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="0834320c-9e23-4bae-85ff-8c05626a643e"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="5c48cf74-faa4-45ce-8724-b4a2e6319650"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C82ADC6-9C55-4ABA-82A3-02696248F2C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>